--- a/data/a_working/lateral.xlsx
+++ b/data/a_working/lateral.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/12b7beb4033c55a8/Documents/GitHub/hein_scraping/data/a_working/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_F3BEFFC321E9EFFBB8170BC08B9EEF9D502DCE86" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{56A7841A-B783-4EEB-9253-819C25BF05A5}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21924" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1519,7 +1525,7 @@
     <t>Natapoff</t>
   </si>
   <si>
-    <t>Rooij</t>
+    <t>van Rooij</t>
   </si>
   <si>
     <t>Rodriguez</t>
@@ -1606,13 +1612,13 @@
     <t>Torres</t>
   </si>
   <si>
-    <t>Omarove</t>
+    <t>Omarova</t>
   </si>
   <si>
     <t>Marmor</t>
   </si>
   <si>
-    <t>Grimmelman</t>
+    <t>Grimmelmann</t>
   </si>
   <si>
     <t>Beydoun</t>
@@ -2338,8 +2344,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2402,6 +2408,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2448,7 +2462,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2480,9 +2494,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2514,6 +2546,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2689,14 +2739,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J288"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="D175" sqref="D175"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2725,7 +2777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2757,7 +2809,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2789,7 +2841,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2821,7 +2873,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2853,7 +2905,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2885,7 +2937,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2917,7 +2969,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2949,7 +3001,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2981,7 +3033,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3013,7 +3065,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3045,7 +3097,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3077,7 +3129,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3109,7 +3161,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3141,7 +3193,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3173,7 +3225,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3205,7 +3257,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3237,7 +3289,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3269,7 +3321,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3301,7 +3353,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3333,7 +3385,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3365,7 +3417,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3397,7 +3449,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3429,7 +3481,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3461,7 +3513,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3493,7 +3545,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3525,7 +3577,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3557,7 +3609,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3589,7 +3641,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3621,7 +3673,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3653,7 +3705,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3685,7 +3737,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3717,7 +3769,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3749,7 +3801,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3781,7 +3833,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3813,7 +3865,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3845,7 +3897,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3877,7 +3929,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3909,7 +3961,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3941,7 +3993,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3973,7 +4025,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4005,7 +4057,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4037,7 +4089,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4069,7 +4121,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4101,7 +4153,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4133,7 +4185,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4165,7 +4217,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4197,7 +4249,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4229,7 +4281,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4261,7 +4313,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4293,7 +4345,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4325,7 +4377,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4357,7 +4409,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4389,7 +4441,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4421,7 +4473,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4453,7 +4505,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4485,7 +4537,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4517,7 +4569,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4549,7 +4601,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4581,7 +4633,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4613,7 +4665,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4645,7 +4697,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4677,7 +4729,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4709,7 +4761,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4741,7 +4793,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4773,7 +4825,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4805,7 +4857,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4837,7 +4889,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4869,7 +4921,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4901,7 +4953,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4933,7 +4985,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4965,7 +5017,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4997,7 +5049,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5029,7 +5081,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5061,7 +5113,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5093,7 +5145,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5125,7 +5177,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5157,7 +5209,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5189,7 +5241,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5221,7 +5273,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -5253,7 +5305,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -5285,7 +5337,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -5317,7 +5369,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -5349,7 +5401,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -5381,7 +5433,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -5413,7 +5465,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -5445,7 +5497,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -5477,7 +5529,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -5509,7 +5561,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -5541,7 +5593,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -5573,7 +5625,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -5605,7 +5657,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -5637,7 +5689,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -5669,7 +5721,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -5701,7 +5753,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -5733,7 +5785,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -5765,7 +5817,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -5797,7 +5849,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -5829,7 +5881,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -5861,7 +5913,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -5893,7 +5945,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -5925,7 +5977,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -5957,7 +6009,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -5989,7 +6041,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -6021,7 +6073,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -6053,7 +6105,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -6085,7 +6137,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -6117,7 +6169,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -6149,7 +6201,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -6181,7 +6233,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -6213,7 +6265,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -6245,7 +6297,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -6277,7 +6329,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -6309,7 +6361,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -6341,7 +6393,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -6373,7 +6425,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -6405,7 +6457,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -6437,7 +6489,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -6469,7 +6521,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -6501,7 +6553,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -6533,7 +6585,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -6565,7 +6617,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -6597,7 +6649,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -6629,7 +6681,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -6661,7 +6713,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -6693,7 +6745,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -6725,7 +6777,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -6757,7 +6809,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -6789,7 +6841,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -6821,7 +6873,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -6853,7 +6905,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -6885,7 +6937,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -6917,7 +6969,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -6949,7 +7001,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -6981,7 +7033,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -7013,7 +7065,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -7045,7 +7097,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -7077,7 +7129,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -7109,7 +7161,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -7141,7 +7193,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -7173,7 +7225,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -7205,7 +7257,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -7237,7 +7289,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -7269,7 +7321,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -7301,7 +7353,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -7333,7 +7385,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -7365,7 +7417,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -7397,7 +7449,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -7429,7 +7481,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -7461,7 +7513,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -7493,7 +7545,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -7525,7 +7577,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -7557,7 +7609,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -7589,7 +7641,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -7621,7 +7673,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -7653,7 +7705,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -7685,7 +7737,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -7717,7 +7769,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -7749,7 +7801,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -7781,7 +7833,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -7813,7 +7865,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -7845,7 +7897,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -7877,7 +7929,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -7909,7 +7961,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -7941,7 +7993,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -7973,7 +8025,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -8005,7 +8057,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -8037,7 +8089,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -8069,7 +8121,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -8101,7 +8153,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -8133,7 +8185,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -8165,7 +8217,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -8197,7 +8249,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -8229,7 +8281,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -8261,7 +8313,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -8293,7 +8345,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -8325,7 +8377,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="177" spans="1:10">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -8357,7 +8409,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="178" spans="1:10">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -8389,7 +8441,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="179" spans="1:10">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -8421,7 +8473,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="180" spans="1:10">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -8453,7 +8505,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="181" spans="1:10">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -8485,7 +8537,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="182" spans="1:10">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -8517,7 +8569,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -8549,7 +8601,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="184" spans="1:10">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -8581,7 +8633,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -8613,7 +8665,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -8645,7 +8697,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -8677,7 +8729,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="188" spans="1:10">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -8709,7 +8761,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="189" spans="1:10">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -8741,7 +8793,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="190" spans="1:10">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -8773,7 +8825,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="191" spans="1:10">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -8805,7 +8857,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="192" spans="1:10">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -8837,7 +8889,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="193" spans="1:10">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -8869,7 +8921,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -8901,7 +8953,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="195" spans="1:10">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -8933,7 +8985,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="196" spans="1:10">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -8965,7 +9017,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="197" spans="1:10">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -8997,7 +9049,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="198" spans="1:10">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -9029,7 +9081,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="199" spans="1:10">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -9061,7 +9113,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="200" spans="1:10">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -9093,7 +9145,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="201" spans="1:10">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -9125,7 +9177,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="202" spans="1:10">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -9157,7 +9209,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="203" spans="1:10">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -9189,7 +9241,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="204" spans="1:10">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -9221,7 +9273,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="205" spans="1:10">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -9253,7 +9305,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="206" spans="1:10">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -9285,7 +9337,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="207" spans="1:10">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -9317,7 +9369,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="208" spans="1:10">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -9349,7 +9401,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="209" spans="1:10">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -9381,7 +9433,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="210" spans="1:10">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -9413,7 +9465,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="211" spans="1:10">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -9445,7 +9497,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="212" spans="1:10">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -9477,7 +9529,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="213" spans="1:10">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -9509,7 +9561,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="214" spans="1:10">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -9541,7 +9593,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="215" spans="1:10">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -9573,7 +9625,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="216" spans="1:10">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -9605,7 +9657,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="217" spans="1:10">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -9637,7 +9689,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="218" spans="1:10">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -9669,7 +9721,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="219" spans="1:10">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -9701,7 +9753,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="220" spans="1:10">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -9733,7 +9785,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="221" spans="1:10">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -9765,7 +9817,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="222" spans="1:10">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -9797,7 +9849,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="223" spans="1:10">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -9829,7 +9881,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="224" spans="1:10">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -9861,7 +9913,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="225" spans="1:10">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -9893,7 +9945,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="226" spans="1:10">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -9925,7 +9977,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="227" spans="1:10">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -9957,7 +10009,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="228" spans="1:10">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -9989,7 +10041,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="229" spans="1:10">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -10021,7 +10073,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="230" spans="1:10">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -10053,7 +10105,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="231" spans="1:10">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -10085,7 +10137,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="232" spans="1:10">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -10117,7 +10169,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="233" spans="1:10">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -10149,7 +10201,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="234" spans="1:10">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -10181,7 +10233,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="235" spans="1:10">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -10213,7 +10265,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="236" spans="1:10">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -10245,7 +10297,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="237" spans="1:10">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -10277,7 +10329,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="238" spans="1:10">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -10309,7 +10361,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="239" spans="1:10">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -10341,7 +10393,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="240" spans="1:10">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -10373,7 +10425,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="241" spans="1:10">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -10405,7 +10457,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="242" spans="1:10">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -10437,7 +10489,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="243" spans="1:10">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -10469,7 +10521,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="244" spans="1:10">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -10501,7 +10553,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="245" spans="1:10">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -10533,7 +10585,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="246" spans="1:10">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -10565,7 +10617,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="247" spans="1:10">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -10597,7 +10649,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="248" spans="1:10">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -10629,7 +10681,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="249" spans="1:10">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -10661,7 +10713,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="250" spans="1:10">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -10693,7 +10745,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="251" spans="1:10">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -10725,7 +10777,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="252" spans="1:10">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -10757,7 +10809,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="253" spans="1:10">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -10789,7 +10841,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="254" spans="1:10">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -10821,7 +10873,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="255" spans="1:10">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -10853,7 +10905,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="256" spans="1:10">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -10885,7 +10937,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="257" spans="1:10">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -10917,7 +10969,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="258" spans="1:10">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -10949,7 +11001,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="259" spans="1:10">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -10981,7 +11033,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="260" spans="1:10">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -11013,7 +11065,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="261" spans="1:10">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -11045,7 +11097,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="262" spans="1:10">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -11077,7 +11129,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="263" spans="1:10">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -11109,7 +11161,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="264" spans="1:10">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -11141,7 +11193,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="265" spans="1:10">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -11173,7 +11225,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="266" spans="1:10">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -11205,7 +11257,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="267" spans="1:10">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -11237,7 +11289,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="268" spans="1:10">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -11269,7 +11321,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="269" spans="1:10">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -11301,7 +11353,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="270" spans="1:10">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -11333,7 +11385,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="271" spans="1:10">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -11365,7 +11417,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="272" spans="1:10">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -11397,7 +11449,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="273" spans="1:10">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -11429,7 +11481,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="274" spans="1:10">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -11461,7 +11513,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="275" spans="1:10">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -11493,7 +11545,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="276" spans="1:10">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -11525,7 +11577,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="277" spans="1:10">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -11557,7 +11609,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="278" spans="1:10">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -11589,7 +11641,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="279" spans="1:10">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -11621,7 +11673,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="280" spans="1:10">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -11653,7 +11705,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="281" spans="1:10">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -11685,7 +11737,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="282" spans="1:10">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -11717,7 +11769,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="283" spans="1:10">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -11749,7 +11801,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="284" spans="1:10">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -11781,7 +11833,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="285" spans="1:10">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -11813,7 +11865,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="286" spans="1:10">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -11845,7 +11897,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="287" spans="1:10">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -11877,7 +11929,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="288" spans="1:10">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>286</v>
       </c>

--- a/data/a_working/lateral.xlsx
+++ b/data/a_working/lateral.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/12b7beb4033c55a8/Documents/GitHub/hein_scraping/data/a_working/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_F3BEFFC300816BDB78160B86F31EE349512DEAAE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{184F0F79-250D-43CD-A8EB-852C509BF1E5}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_F3BEFFC300816BDB78160B86F31EE349512DEAAE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBD38E2C-6F5C-4754-80B5-B3AC7B98AB89}"/>
   <bookViews>
-    <workbookView xWindow="-35040" yWindow="1980" windowWidth="28095" windowHeight="15825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1044" yWindow="3288" windowWidth="20568" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2754,10 +2754,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="G291" sqref="G291"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E210" sqref="C210:E210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2791,7 +2792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2849,7 +2850,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2878,7 +2879,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2907,7 +2908,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2936,7 +2937,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2965,7 +2966,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2994,7 +2995,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -3023,7 +3024,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -3052,7 +3053,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -3081,7 +3082,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -3110,7 +3111,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -3139,7 +3140,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -3168,7 +3169,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -3197,7 +3198,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -3226,7 +3227,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -3255,7 +3256,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -3284,7 +3285,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -3342,7 +3343,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -3371,7 +3372,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -3400,7 +3401,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -3429,7 +3430,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -3458,7 +3459,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -3487,7 +3488,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -3545,7 +3546,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -3574,7 +3575,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -3603,7 +3604,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -3632,7 +3633,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -3661,7 +3662,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -3690,7 +3691,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -3719,7 +3720,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -3748,7 +3749,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -3777,7 +3778,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -3806,7 +3807,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -3835,7 +3836,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -3864,7 +3865,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>58</v>
       </c>
@@ -3893,7 +3894,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>60</v>
       </c>
@@ -3922,7 +3923,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>61</v>
       </c>
@@ -3951,7 +3952,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -3980,7 +3981,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -4009,7 +4010,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -4038,7 +4039,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>22</v>
       </c>
@@ -4067,7 +4068,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>66</v>
       </c>
@@ -4096,7 +4097,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>67</v>
       </c>
@@ -4125,7 +4126,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>41</v>
       </c>
@@ -4154,7 +4155,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>69</v>
       </c>
@@ -4183,7 +4184,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>62</v>
       </c>
@@ -4212,7 +4213,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -4241,7 +4242,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -4270,7 +4271,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>70</v>
       </c>
@@ -4299,7 +4300,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>22</v>
       </c>
@@ -4328,7 +4329,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -4357,7 +4358,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>34</v>
       </c>
@@ -4386,7 +4387,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>71</v>
       </c>
@@ -4415,7 +4416,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>25</v>
       </c>
@@ -4444,7 +4445,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>25</v>
       </c>
@@ -4473,7 +4474,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>51</v>
       </c>
@@ -4502,7 +4503,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>45</v>
       </c>
@@ -4531,7 +4532,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>44</v>
       </c>
@@ -4560,7 +4561,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>36</v>
       </c>
@@ -4589,7 +4590,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>28</v>
       </c>
@@ -4618,7 +4619,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>45</v>
       </c>
@@ -4647,7 +4648,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -4676,7 +4677,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>52</v>
       </c>
@@ -4705,7 +4706,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>75</v>
       </c>
@@ -4734,7 +4735,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>74</v>
       </c>
@@ -4763,7 +4764,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>40</v>
       </c>
@@ -4792,7 +4793,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>32</v>
       </c>
@@ -4821,7 +4822,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -4850,7 +4851,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>28</v>
       </c>
@@ -4879,7 +4880,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>28</v>
       </c>
@@ -4908,7 +4909,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>25</v>
       </c>
@@ -4937,7 +4938,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>32</v>
       </c>
@@ -4966,7 +4967,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>48</v>
       </c>
@@ -4995,7 +4996,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>37</v>
       </c>
@@ -5024,7 +5025,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>16</v>
       </c>
@@ -5053,7 +5054,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>14</v>
       </c>
@@ -5082,7 +5083,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -5111,7 +5112,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>21</v>
       </c>
@@ -5140,7 +5141,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>21</v>
       </c>
@@ -5169,7 +5170,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>42</v>
       </c>
@@ -5198,7 +5199,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -5227,7 +5228,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -5256,7 +5257,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>29</v>
       </c>
@@ -5285,7 +5286,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>29</v>
       </c>
@@ -5314,7 +5315,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -5343,7 +5344,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>37</v>
       </c>
@@ -5372,7 +5373,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>64</v>
       </c>
@@ -5401,7 +5402,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>19</v>
       </c>
@@ -5430,7 +5431,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>18</v>
       </c>
@@ -5459,7 +5460,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>31</v>
       </c>
@@ -5488,7 +5489,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>65</v>
       </c>
@@ -5517,7 +5518,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>37</v>
       </c>
@@ -5546,7 +5547,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>22</v>
       </c>
@@ -5575,7 +5576,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>46</v>
       </c>
@@ -5604,7 +5605,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>61</v>
       </c>
@@ -5633,7 +5634,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>37</v>
       </c>
@@ -5662,7 +5663,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>79</v>
       </c>
@@ -5691,7 +5692,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>80</v>
       </c>
@@ -5720,7 +5721,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>50</v>
       </c>
@@ -5749,7 +5750,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>81</v>
       </c>
@@ -5778,7 +5779,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>10</v>
       </c>
@@ -5807,7 +5808,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>23</v>
       </c>
@@ -5836,7 +5837,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>49</v>
       </c>
@@ -5865,7 +5866,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>82</v>
       </c>
@@ -5894,7 +5895,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>61</v>
       </c>
@@ -5923,7 +5924,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>28</v>
       </c>
@@ -5952,7 +5953,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>11</v>
       </c>
@@ -5981,7 +5982,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>83</v>
       </c>
@@ -6010,7 +6011,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>77</v>
       </c>
@@ -6039,7 +6040,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>15</v>
       </c>
@@ -6068,7 +6069,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>15</v>
       </c>
@@ -6097,7 +6098,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>51</v>
       </c>
@@ -6126,7 +6127,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>48</v>
       </c>
@@ -6155,7 +6156,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>30</v>
       </c>
@@ -6184,7 +6185,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>30</v>
       </c>
@@ -6213,7 +6214,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>59</v>
       </c>
@@ -6242,7 +6243,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>84</v>
       </c>
@@ -6271,7 +6272,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>24</v>
       </c>
@@ -6300,7 +6301,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>30</v>
       </c>
@@ -6329,7 +6330,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>85</v>
       </c>
@@ -6358,7 +6359,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>32</v>
       </c>
@@ -6387,7 +6388,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>72</v>
       </c>
@@ -6416,7 +6417,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>49</v>
       </c>
@@ -6445,7 +6446,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>14</v>
       </c>
@@ -6474,7 +6475,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>19</v>
       </c>
@@ -6503,7 +6504,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>61</v>
       </c>
@@ -6532,7 +6533,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -6561,7 +6562,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>86</v>
       </c>
@@ -6590,7 +6591,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>50</v>
       </c>
@@ -6619,7 +6620,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>43</v>
       </c>
@@ -6648,7 +6649,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>37</v>
       </c>
@@ -6677,7 +6678,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>63</v>
       </c>
@@ -6706,7 +6707,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>70</v>
       </c>
@@ -6735,7 +6736,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>26</v>
       </c>
@@ -6764,7 +6765,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>26</v>
       </c>
@@ -6793,7 +6794,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>25</v>
       </c>
@@ -6822,7 +6823,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>32</v>
       </c>
@@ -6851,7 +6852,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>78</v>
       </c>
@@ -6880,7 +6881,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>55</v>
       </c>
@@ -6909,7 +6910,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>35</v>
       </c>
@@ -6938,7 +6939,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>32</v>
       </c>
@@ -6967,7 +6968,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>29</v>
       </c>
@@ -6996,7 +6997,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>10</v>
       </c>
@@ -7025,7 +7026,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>16</v>
       </c>
@@ -7054,7 +7055,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>13</v>
       </c>
@@ -7083,7 +7084,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>87</v>
       </c>
@@ -7112,7 +7113,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>88</v>
       </c>
@@ -7141,7 +7142,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>26</v>
       </c>
@@ -7170,7 +7171,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>26</v>
       </c>
@@ -7199,7 +7200,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>26</v>
       </c>
@@ -7228,7 +7229,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>47</v>
       </c>
@@ -7257,7 +7258,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>22</v>
       </c>
@@ -7286,7 +7287,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>20</v>
       </c>
@@ -7315,7 +7316,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>32</v>
       </c>
@@ -7344,7 +7345,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>51</v>
       </c>
@@ -7373,7 +7374,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>23</v>
       </c>
@@ -7402,7 +7403,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>42</v>
       </c>
@@ -7431,7 +7432,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>16</v>
       </c>
@@ -7460,7 +7461,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>12</v>
       </c>
@@ -7489,7 +7490,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>39</v>
       </c>
@@ -7518,7 +7519,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>22</v>
       </c>
@@ -7547,7 +7548,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>83</v>
       </c>
@@ -7576,7 +7577,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>24</v>
       </c>
@@ -7605,7 +7606,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>26</v>
       </c>
@@ -7634,7 +7635,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>46</v>
       </c>
@@ -7663,7 +7664,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>16</v>
       </c>
@@ -7692,7 +7693,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>28</v>
       </c>
@@ -7721,7 +7722,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>28</v>
       </c>
@@ -7750,7 +7751,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>56</v>
       </c>
@@ -7779,7 +7780,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>49</v>
       </c>
@@ -7808,7 +7809,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>78</v>
       </c>
@@ -7837,7 +7838,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>10</v>
       </c>
@@ -7866,7 +7867,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>9</v>
       </c>
@@ -7895,7 +7896,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>26</v>
       </c>
@@ -7924,7 +7925,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>61</v>
       </c>
@@ -7953,7 +7954,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>62</v>
       </c>
@@ -7982,7 +7983,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>39</v>
       </c>
@@ -8011,7 +8012,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>39</v>
       </c>
@@ -8040,7 +8041,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>9</v>
       </c>
@@ -8069,7 +8070,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>34</v>
       </c>
@@ -8098,7 +8099,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>90</v>
       </c>
@@ -8127,7 +8128,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>68</v>
       </c>
@@ -8156,7 +8157,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>16</v>
       </c>
@@ -8185,7 +8186,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>91</v>
       </c>
@@ -8243,7 +8244,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>13</v>
       </c>
@@ -8272,7 +8273,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>38</v>
       </c>
@@ -8301,7 +8302,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>11</v>
       </c>
@@ -8330,7 +8331,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>37</v>
       </c>
@@ -8359,7 +8360,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>38</v>
       </c>
@@ -8388,7 +8389,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>91</v>
       </c>
@@ -8417,7 +8418,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>14</v>
       </c>
@@ -8446,7 +8447,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>39</v>
       </c>
@@ -8475,7 +8476,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>78</v>
       </c>
@@ -8504,7 +8505,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>14</v>
       </c>
@@ -8533,7 +8534,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>27</v>
       </c>
@@ -8562,7 +8563,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>46</v>
       </c>
@@ -8591,7 +8592,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>25</v>
       </c>
@@ -8620,7 +8621,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>22</v>
       </c>
@@ -8649,7 +8650,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>15</v>
       </c>
@@ -8678,7 +8679,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>36</v>
       </c>
@@ -8707,7 +8708,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>15</v>
       </c>
@@ -8736,7 +8737,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>64</v>
       </c>
@@ -8765,7 +8766,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>33</v>
       </c>
@@ -8794,7 +8795,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>24</v>
       </c>
@@ -8852,7 +8853,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>25</v>
       </c>
@@ -8881,7 +8882,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>36</v>
       </c>
@@ -8939,7 +8940,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>25</v>
       </c>
@@ -8968,7 +8969,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>39</v>
       </c>
@@ -8997,7 +8998,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>52</v>
       </c>
@@ -9026,7 +9027,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>9</v>
       </c>
@@ -9055,7 +9056,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>30</v>
       </c>
@@ -9084,7 +9085,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>92</v>
       </c>
@@ -9113,7 +9114,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>92</v>
       </c>
@@ -9171,7 +9172,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>27</v>
       </c>
@@ -9200,7 +9201,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>16</v>
       </c>
@@ -9229,7 +9230,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>49</v>
       </c>
@@ -9258,7 +9259,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>37</v>
       </c>
@@ -9287,7 +9288,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>65</v>
       </c>
@@ -9316,7 +9317,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>86</v>
       </c>
@@ -9345,7 +9346,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>30</v>
       </c>
@@ -9403,7 +9404,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>38</v>
       </c>
@@ -9432,7 +9433,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>93</v>
       </c>
@@ -9461,7 +9462,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>37</v>
       </c>
@@ -9490,7 +9491,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>62</v>
       </c>
@@ -9519,7 +9520,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>23</v>
       </c>
@@ -9548,7 +9549,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>85</v>
       </c>
@@ -9577,7 +9578,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>23</v>
       </c>
@@ -9606,7 +9607,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>14</v>
       </c>
@@ -9635,7 +9636,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>24</v>
       </c>
@@ -9664,7 +9665,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>11</v>
       </c>
@@ -9693,7 +9694,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>50</v>
       </c>
@@ -9722,7 +9723,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>26</v>
       </c>
@@ -9751,7 +9752,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>62</v>
       </c>
@@ -9780,7 +9781,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>37</v>
       </c>
@@ -9809,7 +9810,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>44</v>
       </c>
@@ -9838,7 +9839,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>23</v>
       </c>
@@ -9867,7 +9868,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>55</v>
       </c>
@@ -9896,7 +9897,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>30</v>
       </c>
@@ -9925,7 +9926,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>37</v>
       </c>
@@ -9954,7 +9955,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>39</v>
       </c>
@@ -9983,7 +9984,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>14</v>
       </c>
@@ -10012,7 +10013,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>28</v>
       </c>
@@ -10041,7 +10042,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>26</v>
       </c>
@@ -10070,7 +10071,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>11</v>
       </c>
@@ -10099,7 +10100,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>72</v>
       </c>
@@ -10128,7 +10129,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>51</v>
       </c>
@@ -10157,7 +10158,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>65</v>
       </c>
@@ -10186,7 +10187,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>51</v>
       </c>
@@ -10215,7 +10216,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>27</v>
       </c>
@@ -10244,7 +10245,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>39</v>
       </c>
@@ -10273,7 +10274,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>14</v>
       </c>
@@ -10302,7 +10303,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>39</v>
       </c>
@@ -10331,7 +10332,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>10</v>
       </c>
@@ -10360,7 +10361,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>63</v>
       </c>
@@ -10389,7 +10390,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>55</v>
       </c>
@@ -10418,7 +10419,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>25</v>
       </c>
@@ -10447,7 +10448,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>46</v>
       </c>
@@ -10476,7 +10477,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>16</v>
       </c>
@@ -10505,7 +10506,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>26</v>
       </c>
@@ -10534,7 +10535,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>27</v>
       </c>
@@ -10563,7 +10564,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>25</v>
       </c>
@@ -10592,7 +10593,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>40</v>
       </c>
@@ -10621,7 +10622,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>84</v>
       </c>
@@ -10650,7 +10651,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>14</v>
       </c>
@@ -10679,7 +10680,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>31</v>
       </c>
@@ -10708,7 +10709,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>13</v>
       </c>
@@ -10737,7 +10738,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>32</v>
       </c>
@@ -10766,7 +10767,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>13</v>
       </c>
@@ -10795,7 +10796,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>16</v>
       </c>
@@ -10824,7 +10825,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>56</v>
       </c>
@@ -10853,7 +10854,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>17</v>
       </c>
@@ -10882,7 +10883,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>26</v>
       </c>
@@ -10911,7 +10912,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>94</v>
       </c>
@@ -10940,7 +10941,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>38</v>
       </c>
@@ -10969,7 +10970,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>76</v>
       </c>
@@ -10998,7 +10999,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>89</v>
       </c>
@@ -11027,7 +11028,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>16</v>
       </c>
@@ -11056,7 +11057,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>73</v>
       </c>
@@ -11085,7 +11086,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>95</v>
       </c>
@@ -11115,7 +11116,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I288" xr:uid="{CD10233E-9BA9-471B-AD4F-AE24474A77E5}"/>
+  <autoFilter ref="A1:I288" xr:uid="{CD10233E-9BA9-471B-AD4F-AE24474A77E5}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Alfred"/>
+        <filter val="Ed"/>
+        <filter val="Eduardo"/>
+        <filter val="Edward"/>
+        <filter val="Jedediah"/>
+        <filter val="Khaled"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>